--- a/2020应届生岗位应聘行程整理.xlsx
+++ b/2020应届生岗位应聘行程整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanqiang/Documents/NLP-Interview-Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84496444-6965-6247-BE67-1ABBE41D611B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94524640-D653-7C41-86F6-3422C1792248}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,14 +31,6 @@
   </si>
   <si>
     <t>信息发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,6 +122,34 @@
   <si>
     <t>牛客网https://talent.baidu.com/external/baidu/campus.html#/jobDetail/1/137111/true</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌陌-自然语言处理处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北邮人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是：一面二面三面交叉面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴大文娱-UC自然语言处理-提前批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面二面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -624,19 +644,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD200"/>
+  <dimension ref="A1:AD201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="32.83203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="7" width="12.83203125" customWidth="1"/>
+    <col min="3" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" style="19" customWidth="1"/>
@@ -655,25 +675,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -698,34 +718,32 @@
     </row>
     <row r="2" spans="1:30" ht="16">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9">
         <v>43627</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -750,24 +768,22 @@
     </row>
     <row r="3" spans="1:30" ht="16">
       <c r="A3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9">
         <v>43636</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="15"/>
       <c r="I3" s="7"/>
       <c r="J3" s="17"/>
@@ -794,24 +810,22 @@
     </row>
     <row r="4" spans="1:30" ht="16">
       <c r="A4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9">
         <v>43636</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="15"/>
       <c r="I4" s="7"/>
       <c r="J4" s="17"/>
@@ -838,24 +852,22 @@
     </row>
     <row r="5" spans="1:30" ht="16">
       <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9">
+        <v>43636</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9">
-        <v>43650</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="15"/>
       <c r="I5" s="7"/>
       <c r="J5" s="17"/>
@@ -881,14 +893,24 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="16">
-      <c r="A6" s="11"/>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="9">
+        <v>43666</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43666</v>
+      </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="17"/>
       <c r="K6" s="1"/>
@@ -913,14 +935,22 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="16">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="9">
+        <v>43666</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43670</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="17"/>
       <c r="K7" s="1"/>
@@ -948,10 +978,10 @@
       <c r="A8" s="12"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="15"/>
       <c r="I8" s="7"/>
       <c r="J8" s="17"/>
@@ -977,16 +1007,16 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="16">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1012,10 +1042,10 @@
       <c r="A10" s="16"/>
       <c r="B10" s="13"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="15"/>
       <c r="I10" s="1"/>
       <c r="J10" s="18"/>
@@ -1041,13 +1071,13 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30" ht="16">
-      <c r="A11" s="1"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="13"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="15"/>
       <c r="I11" s="1"/>
       <c r="J11" s="18"/>
@@ -1076,11 +1106,11 @@
       <c r="A12" s="1"/>
       <c r="B12" s="13"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
       <c r="J12" s="18"/>
       <c r="K12" s="1"/>
@@ -1108,7 +1138,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="13"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1140,7 +1170,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="13"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1172,7 +1202,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="13"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1204,10 +1234,10 @@
       <c r="A16" s="1"/>
       <c r="B16" s="13"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="18"/>
@@ -1236,10 +1266,10 @@
       <c r="A17" s="1"/>
       <c r="B17" s="13"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="18"/>
@@ -1268,10 +1298,10 @@
       <c r="A18" s="1"/>
       <c r="B18" s="13"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="14"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="18"/>
@@ -1300,10 +1330,10 @@
       <c r="A19" s="1"/>
       <c r="B19" s="13"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="18"/>
@@ -1329,13 +1359,13 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" ht="16">
-      <c r="A20" s="16"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="14"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="18"/>
@@ -1362,13 +1392,13 @@
     </row>
     <row r="21" spans="1:30" ht="16">
       <c r="A21" s="16"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="18"/>
       <c r="K21" s="1"/>
@@ -1393,14 +1423,14 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30" ht="16">
-      <c r="A22" s="1"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="13"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="1"/>
       <c r="J22" s="18"/>
       <c r="K22" s="1"/>
@@ -1426,12 +1456,12 @@
     </row>
     <row r="23" spans="1:30" ht="16">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="14"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="18"/>
@@ -1460,10 +1490,10 @@
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="14"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="18"/>
@@ -1490,10 +1520,10 @@
     </row>
     <row r="25" spans="1:30" ht="16">
       <c r="A25" s="1"/>
-      <c r="B25" s="13"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1524,9 +1554,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="13"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1554,13 +1584,13 @@
     </row>
     <row r="27" spans="1:30" ht="16">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="18"/>
       <c r="K27" s="1"/>
@@ -1587,11 +1617,11 @@
     <row r="28" spans="1:30" ht="16">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="14"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="14"/>
       <c r="I28" s="1"/>
       <c r="J28" s="18"/>
@@ -1620,11 +1650,11 @@
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="1"/>
       <c r="J29" s="18"/>
       <c r="K29" s="1"/>
@@ -1652,9 +1682,9 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="1"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1683,10 +1713,10 @@
     <row r="31" spans="1:30" ht="16">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -7120,6 +7150,38 @@
       <c r="AC200" s="1"/>
       <c r="AD200" s="1"/>
     </row>
+    <row r="201" spans="1:30" ht="16">
+      <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="18"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+      <c r="W201" s="1"/>
+      <c r="X201" s="1"/>
+      <c r="Y201" s="1"/>
+      <c r="Z201" s="1"/>
+      <c r="AA201" s="1"/>
+      <c r="AB201" s="1"/>
+      <c r="AC201" s="1"/>
+      <c r="AD201" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2020应届生岗位应聘行程整理.xlsx
+++ b/2020应届生岗位应聘行程整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanqiang/Documents/NLP-Interview-Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94524640-D653-7C41-86F6-3422C1792248}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CBB025-42E2-DE4D-BB7C-C2725EC06A8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
-  <si>
-    <t>岗位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>信息发布时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,12 +143,39 @@
     <t>面试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>360智慧城市-自然语言处理工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.uxuqiu.com/q283945-1-4.html</t>
+  </si>
+  <si>
+    <t>新浪&amp;微博 2020届校园招聘-算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手招聘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然语言处理实习生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +265,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -269,15 +303,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,9 +378,16 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,7 +691,7 @@
   <dimension ref="A1:AD201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -666,34 +710,34 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16">
       <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -718,32 +762,32 @@
     </row>
     <row r="2" spans="1:30" ht="16">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9">
         <v>43627</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -768,20 +812,20 @@
     </row>
     <row r="3" spans="1:30" ht="16">
       <c r="A3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9">
         <v>43636</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="15"/>
@@ -810,20 +854,20 @@
     </row>
     <row r="4" spans="1:30" ht="16">
       <c r="A4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9">
         <v>43636</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="15"/>
@@ -852,20 +896,20 @@
     </row>
     <row r="5" spans="1:30" ht="16">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="9">
         <v>43636</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="15"/>
@@ -894,7 +938,7 @@
     </row>
     <row r="6" spans="1:30" ht="16">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9">
@@ -905,11 +949,11 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="17"/>
@@ -936,7 +980,7 @@
     </row>
     <row r="7" spans="1:30" ht="16">
       <c r="A7" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9">
@@ -949,7 +993,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="17"/>
@@ -975,12 +1019,18 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30" ht="16">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9">
+        <v>43678</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="15"/>
       <c r="I8" s="7"/>
@@ -1006,12 +1056,18 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" ht="16">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:30" ht="18">
+      <c r="A9" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9">
+        <v>43678</v>
+      </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="15"/>
@@ -1039,11 +1095,19 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="16">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9">
+        <v>43678</v>
+      </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
       <c r="H10" s="15"/>
@@ -7184,7 +7248,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{7980F14D-E40D-AD4C-BF51-6C91DA31074D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/2020应届生岗位应聘行程整理.xlsx
+++ b/2020应届生岗位应聘行程整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanqiang/Documents/NLP-Interview-Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CBB025-42E2-DE4D-BB7C-C2725EC06A8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438F6758-1A83-1647-B0D4-40A9393816FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>信息发布时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,22 @@
   <si>
     <t>岗位</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线笔试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -691,13 +707,13 @@
   <dimension ref="A1:AD201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
     <col min="3" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
@@ -1167,14 +1183,18 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" ht="16">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B12" s="13"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="7"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="18"/>
       <c r="K12" s="1"/>
@@ -1199,14 +1219,22 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30" ht="16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43683</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="18"/>
       <c r="K13" s="1"/>
